--- a/example.xlsx
+++ b/example.xlsx
@@ -13,6 +13,38 @@
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+  <si>
+    <t>07.08.16</t>
+  </si>
+  <si>
+    <t>T-0706</t>
+  </si>
+  <si>
+    <t>R158M</t>
+  </si>
+  <si>
+    <t>R185U</t>
+  </si>
+  <si>
+    <t>R165M</t>
+  </si>
+  <si>
+    <t>R170U</t>
+  </si>
+  <si>
+    <t>R173M</t>
+  </si>
+  <si>
+    <t>R176U</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -55,7 +87,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -64,6 +96,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -367,363 +403,393 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>458</v>
-      </c>
-      <c r="C1" s="1">
-        <v>428</v>
-      </c>
-      <c r="D1" s="1">
-        <v>541</v>
-      </c>
-      <c r="E1" s="1">
-        <v>413</v>
-      </c>
-      <c r="F1" s="1">
-        <v>428</v>
-      </c>
-      <c r="G1" s="3">
-        <v>480</v>
-      </c>
-      <c r="H1" s="1">
-        <f>AVERAGE(B1:G1)</f>
-        <v>458</v>
-      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2">
-        <v>380</v>
-      </c>
-      <c r="C2" s="1">
-        <v>318</v>
-      </c>
-      <c r="D2" s="1">
-        <v>331</v>
-      </c>
-      <c r="E2" s="1">
-        <v>355</v>
-      </c>
-      <c r="F2" s="1">
-        <v>346</v>
-      </c>
-      <c r="G2" s="3">
-        <v>254</v>
-      </c>
-      <c r="H2" s="1">
-        <f t="shared" ref="H2:H13" si="0">AVERAGE(B2:G2)</f>
-        <v>330.66666666666669</v>
-      </c>
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2">
-        <v>317</v>
-      </c>
-      <c r="C3" s="1">
-        <v>250</v>
-      </c>
-      <c r="D3" s="1">
-        <v>321</v>
-      </c>
-      <c r="E3" s="1">
-        <v>298</v>
-      </c>
-      <c r="F3" s="1">
-        <v>267</v>
-      </c>
-      <c r="G3" s="3">
-        <v>268</v>
-      </c>
-      <c r="H3" s="1">
-        <f t="shared" si="0"/>
-        <v>286.83333333333331</v>
-      </c>
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B4" s="2">
-        <v>316</v>
+        <v>458</v>
       </c>
       <c r="C4" s="1">
-        <v>198</v>
+        <v>428</v>
       </c>
       <c r="D4" s="1">
-        <v>287</v>
+        <v>541</v>
       </c>
       <c r="E4" s="1">
-        <v>236</v>
+        <v>413</v>
       </c>
       <c r="F4" s="1">
-        <v>249</v>
+        <v>428</v>
       </c>
       <c r="G4" s="3">
-        <v>204</v>
-      </c>
-      <c r="H4" s="1">
-        <f t="shared" si="0"/>
-        <v>248.33333333333334</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2">
-        <v>251</v>
+        <v>380</v>
       </c>
       <c r="C5" s="1">
-        <v>169</v>
+        <v>318</v>
       </c>
       <c r="D5" s="1">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="E5" s="1">
-        <v>188</v>
+        <v>355</v>
       </c>
       <c r="F5" s="1">
-        <v>232</v>
+        <v>346</v>
       </c>
       <c r="G5" s="3">
-        <v>214</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" si="0"/>
-        <v>224.16666666666666</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2">
-        <v>262</v>
+        <v>317</v>
       </c>
       <c r="C6" s="1">
-        <v>164</v>
+        <v>250</v>
       </c>
       <c r="D6" s="1">
-        <v>278</v>
+        <v>321</v>
       </c>
       <c r="E6" s="1">
-        <v>164</v>
+        <v>298</v>
       </c>
       <c r="F6" s="1">
-        <v>183</v>
+        <v>267</v>
       </c>
       <c r="G6" s="3">
-        <v>201</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="0"/>
-        <v>208.66666666666666</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2">
-        <v>241</v>
+        <v>316</v>
       </c>
       <c r="C7" s="1">
-        <v>137</v>
+        <v>198</v>
       </c>
       <c r="D7" s="1">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="E7" s="1">
-        <v>154</v>
+        <v>236</v>
       </c>
       <c r="F7" s="1">
-        <v>182</v>
+        <v>249</v>
       </c>
       <c r="G7" s="3">
-        <v>144</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="0"/>
-        <v>187.33333333333334</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="B8" s="2">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="C8" s="1">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D8" s="1">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E8" s="1">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="F8" s="1">
-        <v>169</v>
+        <v>232</v>
       </c>
       <c r="G8" s="3">
-        <v>148</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="0"/>
-        <v>193.16666666666666</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B9" s="2">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C9" s="1">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="D9" s="1">
-        <v>339</v>
+        <v>278</v>
       </c>
       <c r="E9" s="1">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F9" s="1">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="G9" s="3">
-        <v>166</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" si="0"/>
-        <v>223.83333333333334</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="B10" s="2">
-        <v>296</v>
+        <v>241</v>
       </c>
       <c r="C10" s="1">
-        <v>236</v>
+        <v>137</v>
       </c>
       <c r="D10" s="1">
-        <v>336</v>
+        <v>266</v>
       </c>
       <c r="E10" s="1">
-        <v>215</v>
+        <v>154</v>
       </c>
       <c r="F10" s="1">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="G10" s="3">
-        <v>188</v>
-      </c>
-      <c r="H10" s="1">
-        <f t="shared" si="0"/>
-        <v>248.33333333333334</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="B11" s="2">
-        <v>334</v>
+        <v>239</v>
       </c>
       <c r="C11" s="1">
-        <v>266</v>
+        <v>167</v>
       </c>
       <c r="D11" s="1">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="E11" s="1">
-        <v>244</v>
+        <v>140</v>
       </c>
       <c r="F11" s="1">
-        <v>236</v>
+        <v>169</v>
       </c>
       <c r="G11" s="3">
-        <v>193</v>
-      </c>
-      <c r="H11" s="1">
-        <f t="shared" si="0"/>
-        <v>268</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="B12" s="2">
-        <v>342</v>
+        <v>281</v>
       </c>
       <c r="C12" s="1">
-        <v>277</v>
+        <v>199</v>
       </c>
       <c r="D12" s="1">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="E12" s="1">
-        <v>279</v>
+        <v>162</v>
       </c>
       <c r="F12" s="1">
-        <v>261</v>
+        <v>196</v>
       </c>
       <c r="G12" s="3">
-        <v>249</v>
-      </c>
-      <c r="H12" s="1">
-        <f t="shared" si="0"/>
-        <v>294</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
+        <v>120</v>
+      </c>
+      <c r="B13" s="2">
+        <v>296</v>
+      </c>
+      <c r="C13" s="1">
+        <v>236</v>
+      </c>
+      <c r="D13" s="1">
+        <v>336</v>
+      </c>
+      <c r="E13" s="1">
+        <v>215</v>
+      </c>
+      <c r="F13" s="1">
+        <v>219</v>
+      </c>
+      <c r="G13" s="3">
+        <v>188</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>150</v>
+      </c>
+      <c r="B14" s="2">
+        <v>334</v>
+      </c>
+      <c r="C14" s="1">
+        <v>266</v>
+      </c>
+      <c r="D14" s="1">
+        <v>335</v>
+      </c>
+      <c r="E14" s="1">
+        <v>244</v>
+      </c>
+      <c r="F14" s="1">
+        <v>236</v>
+      </c>
+      <c r="G14" s="3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>180</v>
+      </c>
+      <c r="B15" s="2">
+        <v>342</v>
+      </c>
+      <c r="C15" s="1">
+        <v>277</v>
+      </c>
+      <c r="D15" s="1">
+        <v>356</v>
+      </c>
+      <c r="E15" s="1">
+        <v>279</v>
+      </c>
+      <c r="F15" s="1">
+        <v>261</v>
+      </c>
+      <c r="G15" s="3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>240</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B16" s="2">
         <v>298</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C16" s="1">
         <v>312</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D16" s="1">
         <v>388</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E16" s="1">
         <v>325</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F16" s="1">
         <v>308</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G16" s="3">
         <v>300</v>
-      </c>
-      <c r="H13" s="1">
-        <f t="shared" si="0"/>
-        <v>321.83333333333331</v>
       </c>
     </row>
   </sheetData>

--- a/example.xlsx
+++ b/example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="27795" windowHeight="12855"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="9">
   <si>
     <t>07.08.16</t>
   </si>
@@ -403,15 +403,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -433,9 +433,56 @@
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1">
+        <v>30</v>
+      </c>
+      <c r="O1" s="1">
+        <v>40</v>
+      </c>
+      <c r="P1" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>60</v>
+      </c>
+      <c r="R1" s="1">
+        <v>80</v>
+      </c>
+      <c r="S1" s="1">
+        <v>100</v>
+      </c>
+      <c r="T1" s="1">
+        <v>120</v>
+      </c>
+      <c r="U1" s="1">
+        <v>150</v>
+      </c>
+      <c r="V1" s="1">
+        <v>180</v>
+      </c>
+      <c r="W1" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -457,9 +504,56 @@
       <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="2">
+        <v>458</v>
+      </c>
+      <c r="L2" s="2">
+        <v>380</v>
+      </c>
+      <c r="M2" s="2">
+        <v>317</v>
+      </c>
+      <c r="N2" s="2">
+        <v>316</v>
+      </c>
+      <c r="O2" s="2">
+        <v>251</v>
+      </c>
+      <c r="P2" s="2">
+        <v>262</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>241</v>
+      </c>
+      <c r="R2" s="2">
+        <v>239</v>
+      </c>
+      <c r="S2" s="2">
+        <v>281</v>
+      </c>
+      <c r="T2" s="2">
+        <v>296</v>
+      </c>
+      <c r="U2" s="2">
+        <v>334</v>
+      </c>
+      <c r="V2" s="2">
+        <v>342</v>
+      </c>
+      <c r="W2" s="2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -481,9 +575,56 @@
       <c r="G3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1">
+        <v>428</v>
+      </c>
+      <c r="L3" s="1">
+        <v>318</v>
+      </c>
+      <c r="M3" s="1">
+        <v>250</v>
+      </c>
+      <c r="N3" s="1">
+        <v>198</v>
+      </c>
+      <c r="O3" s="1">
+        <v>169</v>
+      </c>
+      <c r="P3" s="1">
+        <v>164</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>137</v>
+      </c>
+      <c r="R3" s="1">
+        <v>167</v>
+      </c>
+      <c r="S3" s="1">
+        <v>199</v>
+      </c>
+      <c r="T3" s="1">
+        <v>236</v>
+      </c>
+      <c r="U3" s="1">
+        <v>266</v>
+      </c>
+      <c r="V3" s="1">
+        <v>277</v>
+      </c>
+      <c r="W3" s="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -505,9 +646,56 @@
       <c r="G4" s="3">
         <v>480</v>
       </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="1">
+        <v>541</v>
+      </c>
+      <c r="L4" s="1">
+        <v>331</v>
+      </c>
+      <c r="M4" s="1">
+        <v>321</v>
+      </c>
+      <c r="N4" s="1">
+        <v>287</v>
+      </c>
+      <c r="O4" s="1">
+        <v>291</v>
+      </c>
+      <c r="P4" s="1">
+        <v>278</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>266</v>
+      </c>
+      <c r="R4" s="1">
+        <v>296</v>
+      </c>
+      <c r="S4" s="1">
+        <v>339</v>
+      </c>
+      <c r="T4" s="1">
+        <v>336</v>
+      </c>
+      <c r="U4" s="1">
+        <v>335</v>
+      </c>
+      <c r="V4" s="1">
+        <v>356</v>
+      </c>
+      <c r="W4" s="1">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>10</v>
       </c>
@@ -529,9 +717,56 @@
       <c r="G5" s="3">
         <v>254</v>
       </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="1">
+        <v>413</v>
+      </c>
+      <c r="L5" s="1">
+        <v>355</v>
+      </c>
+      <c r="M5" s="1">
+        <v>298</v>
+      </c>
+      <c r="N5" s="1">
+        <v>236</v>
+      </c>
+      <c r="O5" s="1">
+        <v>188</v>
+      </c>
+      <c r="P5" s="1">
+        <v>164</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>154</v>
+      </c>
+      <c r="R5" s="1">
+        <v>140</v>
+      </c>
+      <c r="S5" s="1">
+        <v>162</v>
+      </c>
+      <c r="T5" s="1">
+        <v>215</v>
+      </c>
+      <c r="U5" s="1">
+        <v>244</v>
+      </c>
+      <c r="V5" s="1">
+        <v>279</v>
+      </c>
+      <c r="W5" s="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>20</v>
       </c>
@@ -553,9 +788,56 @@
       <c r="G6" s="3">
         <v>268</v>
       </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="1">
+        <v>428</v>
+      </c>
+      <c r="L6" s="1">
+        <v>346</v>
+      </c>
+      <c r="M6" s="1">
+        <v>267</v>
+      </c>
+      <c r="N6" s="1">
+        <v>249</v>
+      </c>
+      <c r="O6" s="1">
+        <v>232</v>
+      </c>
+      <c r="P6" s="1">
+        <v>183</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>182</v>
+      </c>
+      <c r="R6" s="1">
+        <v>169</v>
+      </c>
+      <c r="S6" s="1">
+        <v>196</v>
+      </c>
+      <c r="T6" s="1">
+        <v>219</v>
+      </c>
+      <c r="U6" s="1">
+        <v>236</v>
+      </c>
+      <c r="V6" s="1">
+        <v>261</v>
+      </c>
+      <c r="W6" s="1">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>30</v>
       </c>
@@ -577,9 +859,56 @@
       <c r="G7" s="3">
         <v>204</v>
       </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="3">
+        <v>480</v>
+      </c>
+      <c r="L7" s="3">
+        <v>254</v>
+      </c>
+      <c r="M7" s="3">
+        <v>268</v>
+      </c>
+      <c r="N7" s="3">
+        <v>204</v>
+      </c>
+      <c r="O7" s="3">
+        <v>214</v>
+      </c>
+      <c r="P7" s="3">
+        <v>201</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>144</v>
+      </c>
+      <c r="R7" s="3">
+        <v>148</v>
+      </c>
+      <c r="S7" s="3">
+        <v>166</v>
+      </c>
+      <c r="T7" s="3">
+        <v>188</v>
+      </c>
+      <c r="U7" s="3">
+        <v>193</v>
+      </c>
+      <c r="V7" s="3">
+        <v>249</v>
+      </c>
+      <c r="W7" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>40</v>
       </c>
@@ -603,7 +932,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>50</v>
       </c>
@@ -627,7 +956,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>60</v>
       </c>
@@ -651,7 +980,7 @@
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>80</v>
       </c>
@@ -675,7 +1004,7 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>100</v>
       </c>
@@ -699,7 +1028,7 @@
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>120</v>
       </c>
@@ -723,7 +1052,7 @@
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>150</v>
       </c>
@@ -746,7 +1075,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>180</v>
       </c>
@@ -769,7 +1098,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>240</v>
       </c>

--- a/example.xlsx
+++ b/example.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Documents\GitHub\Rat-analysis-aoc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="17">
   <si>
     <t>time</t>
   </si>
@@ -25,12 +30,6 @@
   </si>
   <si>
     <t>T-0695</t>
-  </si>
-  <si>
-    <t>T-0715</t>
-  </si>
-  <si>
-    <t>T-0737</t>
   </si>
   <si>
     <t>R199M</t>
@@ -45,16 +44,16 @@
     <t>R211M</t>
   </si>
   <si>
+    <t>T-0715</t>
+  </si>
+  <si>
     <t>R200U</t>
   </si>
   <si>
     <t>R204U</t>
   </si>
   <si>
-    <t>R208U</t>
-  </si>
-  <si>
-    <t>R212U</t>
+    <t>T-0737</t>
   </si>
   <si>
     <t>R201M</t>
@@ -68,18 +67,29 @@
   <si>
     <t>R213M</t>
   </si>
+  <si>
+    <t>R208U</t>
+  </si>
+  <si>
+    <t>R212U</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,47 +109,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="8"/>
       </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -147,6 +160,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -163,44 +179,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -230,12 +246,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -274,837 +290,1499 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1" cy="1"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
+      <a:lstStyle/>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1" cy="1"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
+      <a:lstStyle/>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>10</v>
+      </c>
+      <c r="F1">
+        <v>20</v>
+      </c>
+      <c r="G1">
+        <v>30</v>
+      </c>
+      <c r="H1">
+        <v>40</v>
+      </c>
+      <c r="I1">
+        <v>50</v>
+      </c>
+      <c r="J1">
+        <v>60</v>
+      </c>
+      <c r="K1">
+        <v>80</v>
+      </c>
+      <c r="L1">
+        <v>100</v>
+      </c>
+      <c r="M1">
+        <v>120</v>
+      </c>
+      <c r="N1" s="1">
+        <v>150</v>
+      </c>
+      <c r="O1" s="1">
+        <v>180</v>
+      </c>
+      <c r="P1" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>431</v>
+      </c>
+      <c r="E2">
+        <v>396</v>
+      </c>
+      <c r="F2">
+        <v>289</v>
+      </c>
+      <c r="G2">
+        <v>268</v>
+      </c>
+      <c r="H2">
+        <v>256</v>
+      </c>
+      <c r="I2">
+        <v>202</v>
+      </c>
+      <c r="J2">
+        <v>213</v>
+      </c>
+      <c r="K2">
+        <v>165</v>
+      </c>
+      <c r="L2">
+        <v>155</v>
+      </c>
+      <c r="M2">
+        <v>157</v>
+      </c>
+      <c r="N2" s="1">
+        <v>188</v>
+      </c>
+      <c r="O2" s="1">
+        <v>223</v>
+      </c>
+      <c r="P2" s="1">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>367</v>
+      </c>
+      <c r="E3">
+        <v>364</v>
+      </c>
+      <c r="F3">
+        <v>304</v>
+      </c>
+      <c r="G3">
+        <v>288</v>
+      </c>
+      <c r="H3">
+        <v>227</v>
+      </c>
+      <c r="I3">
+        <v>220</v>
+      </c>
+      <c r="J3">
+        <v>158</v>
+      </c>
+      <c r="K3">
+        <v>132</v>
+      </c>
+      <c r="L3">
+        <v>140</v>
+      </c>
+      <c r="M3">
+        <v>143</v>
+      </c>
+      <c r="N3" s="1">
+        <v>169</v>
+      </c>
+      <c r="O3" s="1">
+        <v>200</v>
+      </c>
+      <c r="P3" s="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>378</v>
+      </c>
+      <c r="E4">
+        <v>351</v>
+      </c>
+      <c r="F4">
+        <v>275</v>
+      </c>
+      <c r="G4">
+        <v>234</v>
+      </c>
+      <c r="H4">
+        <v>189</v>
+      </c>
+      <c r="I4">
+        <v>155</v>
+      </c>
+      <c r="J4">
+        <v>141</v>
+      </c>
+      <c r="K4">
+        <v>110</v>
+      </c>
+      <c r="L4">
+        <v>124</v>
+      </c>
+      <c r="M4">
+        <v>125</v>
+      </c>
+      <c r="N4" s="1">
+        <v>134</v>
+      </c>
+      <c r="O4" s="1">
+        <v>166</v>
+      </c>
+      <c r="P4" s="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>356</v>
+      </c>
+      <c r="E5">
+        <v>310</v>
+      </c>
+      <c r="F5">
+        <v>272</v>
+      </c>
+      <c r="G5">
+        <v>234</v>
+      </c>
+      <c r="H5">
+        <v>211</v>
+      </c>
+      <c r="I5">
+        <v>164</v>
+      </c>
+      <c r="J5">
+        <v>159</v>
+      </c>
+      <c r="K5">
+        <v>157</v>
+      </c>
+      <c r="L5">
+        <v>145</v>
+      </c>
+      <c r="M5">
+        <v>149</v>
+      </c>
+      <c r="N5" s="1">
+        <v>172</v>
+      </c>
+      <c r="O5" s="1">
+        <v>196</v>
+      </c>
+      <c r="P5" s="1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>341</v>
+      </c>
+      <c r="E6">
+        <v>328</v>
+      </c>
+      <c r="F6">
+        <v>296</v>
+      </c>
+      <c r="G6">
+        <v>265</v>
+      </c>
+      <c r="H6">
+        <v>251</v>
+      </c>
+      <c r="I6">
+        <v>246</v>
+      </c>
+      <c r="J6">
+        <v>210</v>
+      </c>
+      <c r="K6">
+        <v>189</v>
+      </c>
+      <c r="L6">
+        <v>188</v>
+      </c>
+      <c r="M6">
+        <v>205</v>
+      </c>
+      <c r="N6" s="1">
+        <v>214</v>
+      </c>
+      <c r="O6" s="1">
+        <v>261</v>
+      </c>
+      <c r="P6" s="1">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>450</v>
+      </c>
+      <c r="E7">
+        <v>403</v>
+      </c>
+      <c r="F7">
+        <v>350</v>
+      </c>
+      <c r="G7">
+        <v>290</v>
+      </c>
+      <c r="H7">
+        <v>219</v>
+      </c>
+      <c r="I7">
+        <v>178</v>
+      </c>
+      <c r="J7">
+        <v>162</v>
+      </c>
+      <c r="K7">
+        <v>138</v>
+      </c>
+      <c r="L7">
+        <v>115</v>
+      </c>
+      <c r="M7">
+        <v>117</v>
+      </c>
+      <c r="N7" s="1">
+        <v>122</v>
+      </c>
+      <c r="O7" s="1">
+        <v>171</v>
+      </c>
+      <c r="P7" s="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>439</v>
+      </c>
+      <c r="E8">
+        <v>467</v>
+      </c>
+      <c r="F8">
+        <v>369</v>
+      </c>
+      <c r="G8">
+        <v>315</v>
+      </c>
+      <c r="H8">
+        <v>243</v>
+      </c>
+      <c r="I8">
+        <v>176</v>
+      </c>
+      <c r="J8">
+        <v>122</v>
+      </c>
+      <c r="K8">
+        <v>100</v>
+      </c>
+      <c r="L8">
+        <v>80</v>
+      </c>
+      <c r="M8">
+        <v>86</v>
+      </c>
+      <c r="N8" s="1">
+        <v>102</v>
+      </c>
+      <c r="O8" s="1">
+        <v>118</v>
+      </c>
+      <c r="P8" s="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>415</v>
+      </c>
+      <c r="E9">
+        <v>390</v>
+      </c>
+      <c r="F9">
+        <v>322</v>
+      </c>
+      <c r="G9">
+        <v>318</v>
+      </c>
+      <c r="H9">
+        <v>253</v>
+      </c>
+      <c r="I9">
+        <v>231</v>
+      </c>
+      <c r="J9">
+        <v>170</v>
+      </c>
+      <c r="K9">
+        <v>140</v>
+      </c>
+      <c r="L9">
+        <v>122</v>
+      </c>
+      <c r="M9">
+        <v>115</v>
+      </c>
+      <c r="N9" s="1">
+        <v>123</v>
+      </c>
+      <c r="O9" s="1">
+        <v>148</v>
+      </c>
+      <c r="P9" s="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>416</v>
+      </c>
+      <c r="E10">
+        <v>381</v>
+      </c>
+      <c r="F10">
+        <v>283</v>
+      </c>
+      <c r="G10">
+        <v>234</v>
+      </c>
+      <c r="H10">
+        <v>188</v>
+      </c>
+      <c r="I10">
+        <v>129</v>
+      </c>
+      <c r="J10">
+        <v>108</v>
+      </c>
+      <c r="K10">
+        <v>82</v>
+      </c>
+      <c r="L10">
+        <v>79</v>
+      </c>
+      <c r="M10">
+        <v>80</v>
+      </c>
+      <c r="N10" s="1">
+        <v>84</v>
+      </c>
+      <c r="O10" s="1">
+        <v>99</v>
+      </c>
+      <c r="P10" s="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>367</v>
+      </c>
+      <c r="E11">
+        <v>325</v>
+      </c>
+      <c r="F11">
+        <v>300</v>
+      </c>
+      <c r="G11">
+        <v>268</v>
+      </c>
+      <c r="H11">
+        <v>194</v>
+      </c>
+      <c r="I11">
+        <v>165</v>
+      </c>
+      <c r="J11">
+        <v>158</v>
+      </c>
+      <c r="K11">
+        <v>122</v>
+      </c>
+      <c r="L11">
+        <v>120</v>
+      </c>
+      <c r="M11">
+        <v>131</v>
+      </c>
+      <c r="N11" s="1">
+        <v>156</v>
+      </c>
+      <c r="O11" s="1">
+        <v>180</v>
+      </c>
+      <c r="P11" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="B26" s="6">
+        <v>431</v>
+      </c>
+      <c r="C26" s="4">
+        <v>367</v>
+      </c>
+      <c r="D26" s="4">
+        <v>378</v>
+      </c>
+      <c r="E26" s="4">
+        <v>356</v>
+      </c>
+      <c r="F26" s="6">
+        <v>341</v>
+      </c>
+      <c r="G26" s="4">
+        <v>450</v>
+      </c>
+      <c r="H26" s="7">
+        <v>380</v>
+      </c>
+      <c r="I26" s="4">
+        <v>299</v>
+      </c>
+      <c r="J26" s="6">
+        <v>439</v>
+      </c>
+      <c r="K26" s="4">
+        <v>415</v>
+      </c>
+      <c r="L26" s="4">
+        <v>416</v>
+      </c>
+      <c r="M26" s="4">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" s="4">
         <v>10</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2">
-        <v>431</v>
-      </c>
-      <c r="C4" s="1">
-        <v>367</v>
-      </c>
-      <c r="D4" s="1">
-        <v>378</v>
-      </c>
-      <c r="E4" s="1">
-        <v>356</v>
-      </c>
-      <c r="F4" s="2">
-        <v>341</v>
-      </c>
-      <c r="G4" s="1">
-        <v>450</v>
-      </c>
-      <c r="H4" s="6">
-        <v>380</v>
-      </c>
-      <c r="I4" s="1">
-        <v>299</v>
-      </c>
-      <c r="J4" s="2">
-        <v>439</v>
-      </c>
-      <c r="K4" s="1">
-        <v>415</v>
-      </c>
-      <c r="L4" s="1">
-        <v>416</v>
-      </c>
-      <c r="M4" s="1">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="B27" s="6">
         <v>396</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C27" s="4">
         <v>364</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D27" s="4">
         <v>351</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E27" s="4">
         <v>310</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F27" s="6">
         <v>328</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G27" s="4">
         <v>403</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H27" s="7">
         <v>311</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I27" s="4">
         <v>231</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J27" s="6">
         <v>467</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K27" s="4">
         <v>390</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L27" s="4">
         <v>381</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M27" s="4">
         <v>325</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" s="4">
         <v>20</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B28" s="6">
         <v>289</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C28" s="4">
         <v>304</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D28" s="4">
         <v>275</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E28" s="4">
         <v>272</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F28" s="6">
         <v>296</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G28" s="4">
         <v>350</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H28" s="7">
         <v>283</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I28" s="4">
         <v>195</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J28" s="6">
         <v>369</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K28" s="4">
         <v>322</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L28" s="4">
         <v>283</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M28" s="4">
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" s="4">
         <v>30</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B29" s="6">
         <v>268</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C29" s="4">
         <v>288</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D29" s="4">
         <v>234</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E29" s="4">
         <v>234</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F29" s="6">
         <v>265</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G29" s="4">
         <v>290</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H29" s="7">
         <v>208</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I29" s="4">
         <v>176</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J29" s="6">
         <v>315</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K29" s="4">
         <v>318</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L29" s="4">
         <v>234</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M29" s="4">
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" s="4">
         <v>40</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B30" s="6">
         <v>256</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C30" s="4">
         <v>227</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D30" s="4">
         <v>189</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E30" s="4">
         <v>211</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F30" s="6">
         <v>251</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G30" s="4">
         <v>219</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H30" s="7">
         <v>117</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I30" s="4">
         <v>116</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J30" s="6">
         <v>243</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K30" s="4">
         <v>253</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L30" s="4">
         <v>188</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M30" s="4">
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" s="4">
         <v>50</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B31" s="6">
         <v>202</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C31" s="4">
         <v>220</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D31" s="4">
         <v>155</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E31" s="4">
         <v>164</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F31" s="6">
         <v>246</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G31" s="4">
         <v>178</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H31" s="7">
         <v>137</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I31" s="4">
         <v>99</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J31" s="6">
         <v>176</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K31" s="4">
         <v>231</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L31" s="4">
         <v>129</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M31" s="4">
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" s="4">
         <v>60</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B32" s="6">
         <v>213</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C32" s="4">
         <v>158</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D32" s="4">
         <v>141</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E32" s="4">
         <v>159</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F32" s="6">
         <v>210</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G32" s="4">
         <v>162</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H32" s="7">
         <v>89</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I32" s="4">
         <v>91</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J32" s="6">
         <v>122</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K32" s="4">
         <v>170</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L32" s="4">
         <v>108</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M32" s="4">
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33" s="4">
         <v>80</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B33" s="6">
         <v>165</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C33" s="4">
         <v>132</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D33" s="4">
         <v>110</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E33" s="4">
         <v>157</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F33" s="6">
         <v>189</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G33" s="4">
         <v>138</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H33" s="7">
         <v>55</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I33" s="4">
         <v>63</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J33" s="6">
         <v>100</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K33" s="4">
         <v>140</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L33" s="4">
         <v>82</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M33" s="4">
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34" s="4">
         <v>100</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B34" s="6">
         <v>155</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C34" s="4">
         <v>140</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D34" s="4">
         <v>124</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E34" s="4">
         <v>145</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F34" s="6">
         <v>188</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G34" s="4">
         <v>115</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H34" s="7">
         <v>61</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I34" s="4">
         <v>85</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J34" s="6">
         <v>80</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K34" s="4">
         <v>122</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L34" s="4">
         <v>79</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M34" s="4">
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35" s="4">
         <v>120</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B35" s="6">
         <v>157</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C35" s="4">
         <v>143</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D35" s="4">
         <v>125</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E35" s="4">
         <v>149</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F35" s="6">
         <v>205</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G35" s="4">
         <v>117</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H35" s="7">
         <v>65</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I35" s="4">
         <v>96</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J35" s="6">
         <v>86</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K35" s="4">
         <v>115</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L35" s="4">
         <v>80</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M35" s="4">
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36" s="4">
         <v>150</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B36" s="6">
         <v>188</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C36" s="4">
         <v>169</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D36" s="4">
         <v>134</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E36" s="4">
         <v>172</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F36" s="6">
         <v>214</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G36" s="4">
         <v>122</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H36" s="7">
         <v>70</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I36" s="4">
         <v>130</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J36" s="6">
         <v>102</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K36" s="4">
         <v>123</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L36" s="4">
         <v>84</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M36" s="4">
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37" s="4">
         <v>180</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B37" s="6">
         <v>223</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C37" s="4">
         <v>200</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D37" s="4">
         <v>166</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E37" s="4">
         <v>196</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F37" s="6">
         <v>261</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G37" s="4">
         <v>171</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H37" s="7">
         <v>91</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I37" s="4">
         <v>161</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J37" s="6">
         <v>118</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K37" s="4">
         <v>148</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L37" s="4">
         <v>99</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M37" s="4">
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A38" s="4">
         <v>240</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B38" s="6">
         <v>262</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C38" s="4">
         <v>256</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D38" s="4">
         <v>202</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E38" s="4">
         <v>254</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F38" s="6">
         <v>287</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G38" s="4">
         <v>204</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H38" s="7">
         <v>148</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I38" s="4">
         <v>298</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J38" s="6">
         <v>168</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K38" s="4">
         <v>158</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L38" s="4">
         <v>126</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M38" s="4">
         <v>276</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -1114,9 +1792,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="1"/>
+  </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -1126,8 +1810,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="1"/>
+  </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/example.xlsx
+++ b/example.xlsx
@@ -3,7 +3,7 @@
 <s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <s:workbookPr codeName="ThisWorkbook"/>
   <s:bookViews>
-    <s:workbookView activeTab="0"/>
+    <s:workbookView activeTab="1"/>
   </s:bookViews>
   <s:sheets>
     <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,30 +17,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>time</t>
   </si>
   <si>
-    <t>09.29.16</t>
+    <t>10.13.16</t>
   </si>
   <si>
-    <t>T-0706</t>
+    <t>T-8155</t>
   </si>
   <si>
-    <t>R205M</t>
+    <t>R263M</t>
   </si>
   <si>
-    <t>R206U</t>
+    <t>R266U</t>
   </si>
   <si>
-    <t>R210M</t>
+    <t>R270U</t>
   </si>
   <si>
-    <t>R231M</t>
+    <t>R273M</t>
   </si>
   <si>
-    <t>R217U</t>
+    <t>R276U</t>
+  </si>
+  <si>
+    <t>T-8158</t>
+  </si>
+  <si>
+    <t>R264U</t>
+  </si>
+  <si>
+    <t>R279M</t>
+  </si>
+  <si>
+    <t>R271M</t>
+  </si>
+  <si>
+    <t>R274U</t>
+  </si>
+  <si>
+    <t>R277M</t>
   </si>
 </sst>
 </file>
@@ -48,19 +66,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <name val="Arial"/>
       <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -99,7 +110,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -116,36 +127,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -511,8 +534,8 @@
   </s:sheetPr>
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -594,47 +617,47 @@
       <c s="2" r="B2" t="s">
         <v>2</v>
       </c>
-      <c s="9" r="C2" t="s">
+      <c s="11" r="C2" t="s">
         <v>3</v>
       </c>
-      <c s="10" r="D2" t="n">
-        <v>460</v>
-      </c>
-      <c s="10" r="E2" t="n">
-        <v>426</v>
-      </c>
-      <c s="10" r="F2" t="n">
-        <v>361</v>
-      </c>
-      <c s="10" r="G2" t="n">
-        <v>309</v>
-      </c>
-      <c s="10" r="H2" t="n">
-        <v>288</v>
-      </c>
-      <c s="10" r="I2" t="n">
-        <v>273</v>
-      </c>
-      <c s="10" r="J2" t="n">
-        <v>255</v>
-      </c>
-      <c s="10" r="K2" t="n">
-        <v>205</v>
-      </c>
-      <c s="10" r="L2" t="n">
-        <v>206</v>
-      </c>
-      <c s="10" r="M2" t="n">
-        <v>220</v>
-      </c>
-      <c s="10" r="N2" t="n">
-        <v>220</v>
-      </c>
-      <c s="10" r="O2" t="n">
-        <v>262</v>
-      </c>
-      <c s="10" r="P2" t="n">
-        <v>332</v>
+      <c s="8" r="D2" t="n">
+        <v>446</v>
+      </c>
+      <c s="8" r="E2" t="n">
+        <v>381</v>
+      </c>
+      <c s="8" r="F2" t="n">
+        <v>355</v>
+      </c>
+      <c s="8" r="G2" t="n">
+        <v>283</v>
+      </c>
+      <c s="8" r="H2" t="n">
+        <v>250</v>
+      </c>
+      <c s="8" r="I2" t="n">
+        <v>201</v>
+      </c>
+      <c s="8" r="J2" t="n">
+        <v>177</v>
+      </c>
+      <c s="8" r="K2" t="n">
+        <v>159</v>
+      </c>
+      <c s="8" r="L2" t="n">
+        <v>146</v>
+      </c>
+      <c s="8" r="M2" t="n">
+        <v>173</v>
+      </c>
+      <c s="8" r="N2" t="n">
+        <v>183</v>
+      </c>
+      <c s="8" r="O2" t="n">
+        <v>222</v>
+      </c>
+      <c s="8" r="P2" t="n">
+        <v>267</v>
       </c>
       <c s="2" r="Q2" t="n"/>
     </row>
@@ -645,47 +668,47 @@
       <c s="2" r="B3" t="s">
         <v>2</v>
       </c>
-      <c s="9" r="C3" t="s">
+      <c s="11" r="C3" t="s">
         <v>4</v>
       </c>
-      <c s="9" r="D3" t="n">
-        <v>458</v>
-      </c>
-      <c s="9" r="E3" t="n">
-        <v>440</v>
-      </c>
-      <c s="9" r="F3" t="n">
-        <v>337</v>
-      </c>
-      <c s="9" r="G3" t="n">
+      <c s="11" r="D3" t="n">
+        <v>413</v>
+      </c>
+      <c s="11" r="E3" t="n">
+        <v>323</v>
+      </c>
+      <c s="11" r="F3" t="n">
+        <v>347</v>
+      </c>
+      <c s="11" r="G3" t="n">
+        <v>292</v>
+      </c>
+      <c s="11" r="H3" t="n">
+        <v>297</v>
+      </c>
+      <c s="11" r="I3" t="n">
         <v>276</v>
       </c>
-      <c s="9" r="H3" t="n">
-        <v>263</v>
-      </c>
-      <c s="9" r="I3" t="n">
-        <v>246</v>
-      </c>
-      <c s="9" r="J3" t="n">
-        <v>207</v>
-      </c>
-      <c s="9" r="K3" t="n">
-        <v>172</v>
-      </c>
-      <c s="9" r="L3" t="n">
-        <v>179</v>
-      </c>
-      <c s="9" r="M3" t="n">
-        <v>173</v>
-      </c>
-      <c s="9" r="N3" t="n">
-        <v>173</v>
-      </c>
-      <c s="9" r="O3" t="n">
-        <v>237</v>
-      </c>
-      <c s="9" r="P3" t="n">
+      <c s="11" r="J3" t="n">
+        <v>280</v>
+      </c>
+      <c s="11" r="K3" t="n">
+        <v>295</v>
+      </c>
+      <c s="11" r="L3" t="n">
         <v>299</v>
+      </c>
+      <c s="11" r="M3" t="n">
+        <v>310</v>
+      </c>
+      <c s="11" r="N3" t="n">
+        <v>335</v>
+      </c>
+      <c s="11" r="O3" t="n">
+        <v>346</v>
+      </c>
+      <c s="11" r="P3" t="n">
+        <v>345</v>
       </c>
       <c s="2" r="Q3" t="n"/>
     </row>
@@ -696,47 +719,47 @@
       <c s="2" r="B4" t="s">
         <v>2</v>
       </c>
-      <c s="9" r="C4" t="s">
+      <c s="11" r="C4" t="s">
         <v>5</v>
       </c>
-      <c s="9" r="D4" t="n">
-        <v>456</v>
-      </c>
-      <c s="9" r="E4" t="n">
-        <v>384</v>
-      </c>
-      <c s="9" r="F4" t="n">
-        <v>323</v>
-      </c>
-      <c s="9" r="G4" t="n">
-        <v>290</v>
-      </c>
-      <c s="9" r="H4" t="n">
-        <v>260</v>
-      </c>
-      <c s="9" r="I4" t="n">
-        <v>220</v>
-      </c>
-      <c s="9" r="J4" t="n">
-        <v>219</v>
-      </c>
-      <c s="9" r="K4" t="n">
-        <v>214</v>
-      </c>
-      <c s="9" r="L4" t="n">
-        <v>201</v>
-      </c>
-      <c s="9" r="M4" t="n">
-        <v>217</v>
-      </c>
-      <c s="9" r="N4" t="n">
-        <v>229</v>
-      </c>
-      <c s="9" r="O4" t="n">
-        <v>249</v>
-      </c>
-      <c s="9" r="P4" t="n">
-        <v>298</v>
+      <c s="11" r="D4" t="n">
+        <v>461</v>
+      </c>
+      <c s="11" r="E4" t="n">
+        <v>385</v>
+      </c>
+      <c s="11" r="F4" t="n">
+        <v>328</v>
+      </c>
+      <c s="11" r="G4" t="n">
+        <v>302</v>
+      </c>
+      <c s="11" r="H4" t="n">
+        <v>277</v>
+      </c>
+      <c s="11" r="I4" t="n">
+        <v>258</v>
+      </c>
+      <c s="11" r="J4" t="n">
+        <v>232</v>
+      </c>
+      <c s="11" r="K4" t="n">
+        <v>251</v>
+      </c>
+      <c s="11" r="L4" t="n">
+        <v>257</v>
+      </c>
+      <c s="11" r="M4" t="n">
+        <v>284</v>
+      </c>
+      <c s="11" r="N4" t="n">
+        <v>284</v>
+      </c>
+      <c s="11" r="O4" t="n">
+        <v>300</v>
+      </c>
+      <c s="11" r="P4" t="n">
+        <v>330</v>
       </c>
       <c s="2" r="Q4" t="n"/>
     </row>
@@ -747,47 +770,47 @@
       <c s="2" r="B5" t="s">
         <v>2</v>
       </c>
-      <c s="9" r="C5" t="s">
+      <c s="11" r="C5" t="s">
         <v>6</v>
       </c>
-      <c s="9" r="D5" t="n">
-        <v>362</v>
-      </c>
-      <c s="9" r="E5" t="n">
-        <v>371</v>
-      </c>
-      <c s="9" r="F5" t="n">
-        <v>287</v>
-      </c>
-      <c s="9" r="G5" t="n">
-        <v>253</v>
-      </c>
-      <c s="9" r="H5" t="n">
-        <v>249</v>
-      </c>
-      <c s="9" r="I5" t="n">
+      <c s="11" r="D5" t="n">
+        <v>428</v>
+      </c>
+      <c s="11" r="E5" t="n">
+        <v>317</v>
+      </c>
+      <c s="11" r="F5" t="n">
+        <v>269</v>
+      </c>
+      <c s="11" r="G5" t="n">
+        <v>246</v>
+      </c>
+      <c s="11" r="H5" t="n">
+        <v>212</v>
+      </c>
+      <c s="11" r="I5" t="n">
         <v>187</v>
       </c>
-      <c s="9" r="J5" t="n">
-        <v>174</v>
-      </c>
-      <c s="9" r="K5" t="n">
-        <v>121</v>
-      </c>
-      <c s="9" r="L5" t="n">
-        <v>107</v>
-      </c>
-      <c s="9" r="M5" t="n">
-        <v>92</v>
-      </c>
-      <c s="9" r="N5" t="n">
-        <v>97</v>
-      </c>
-      <c s="9" r="O5" t="n">
-        <v>114</v>
-      </c>
-      <c s="9" r="P5" t="n">
-        <v>153</v>
+      <c s="11" r="J5" t="n">
+        <v>197</v>
+      </c>
+      <c s="11" r="K5" t="n">
+        <v>206</v>
+      </c>
+      <c s="11" r="L5" t="n">
+        <v>243</v>
+      </c>
+      <c s="11" r="M5" t="n">
+        <v>264</v>
+      </c>
+      <c s="11" r="N5" t="n">
+        <v>294</v>
+      </c>
+      <c s="11" r="O5" t="n">
+        <v>300</v>
+      </c>
+      <c s="11" r="P5" t="n">
+        <v>323</v>
       </c>
       <c s="2" r="Q5" t="n"/>
     </row>
@@ -798,147 +821,317 @@
       <c s="2" r="B6" t="s">
         <v>2</v>
       </c>
-      <c s="9" r="C6" t="s">
+      <c s="11" r="C6" t="s">
         <v>7</v>
       </c>
-      <c s="9" r="D6" t="n">
-        <v>409</v>
-      </c>
-      <c s="9" r="E6" t="n">
-        <v>354</v>
-      </c>
-      <c s="9" r="F6" t="n">
-        <v>287</v>
-      </c>
-      <c s="9" r="G6" t="n">
-        <v>266</v>
-      </c>
-      <c s="9" r="H6" t="n">
+      <c s="11" r="D6" t="n">
+        <v>385</v>
+      </c>
+      <c s="11" r="E6" t="n">
+        <v>326</v>
+      </c>
+      <c s="11" r="F6" t="n">
+        <v>251</v>
+      </c>
+      <c s="11" r="G6" t="n">
+        <v>240</v>
+      </c>
+      <c s="11" r="H6" t="n">
+        <v>229</v>
+      </c>
+      <c s="11" r="I6" t="n">
+        <v>216</v>
+      </c>
+      <c s="11" r="J6" t="n">
+        <v>203</v>
+      </c>
+      <c s="11" r="K6" t="n">
+        <v>167</v>
+      </c>
+      <c s="11" r="L6" t="n">
+        <v>158</v>
+      </c>
+      <c s="11" r="M6" t="n">
+        <v>172</v>
+      </c>
+      <c s="11" r="N6" t="n">
+        <v>158</v>
+      </c>
+      <c s="11" r="O6" t="n">
+        <v>188</v>
+      </c>
+      <c s="11" r="P6" t="n">
+        <v>209</v>
+      </c>
+      <c s="6" r="Q6" t="n"/>
+    </row>
+    <row s="1" r="7" spans="1:17">
+      <c s="2" r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c s="2" r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c s="11" r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c s="8" r="D7" t="n">
+        <v>412</v>
+      </c>
+      <c s="8" r="E7" t="n">
+        <v>307</v>
+      </c>
+      <c s="8" r="F7" t="n">
+        <v>302</v>
+      </c>
+      <c s="8" r="G7" t="n">
+        <v>278</v>
+      </c>
+      <c s="8" r="H7" t="n">
+        <v>248</v>
+      </c>
+      <c s="8" r="I7" t="n">
+        <v>231</v>
+      </c>
+      <c s="8" r="J7" t="n">
+        <v>197</v>
+      </c>
+      <c s="8" r="K7" t="n">
+        <v>194</v>
+      </c>
+      <c s="8" r="L7" t="n">
+        <v>185</v>
+      </c>
+      <c s="8" r="M7" t="n">
+        <v>205</v>
+      </c>
+      <c s="8" r="N7" t="n">
+        <v>199</v>
+      </c>
+      <c s="8" r="O7" t="n">
         <v>242</v>
       </c>
-      <c s="9" r="I6" t="n">
+      <c s="8" r="P7" t="n">
+        <v>267</v>
+      </c>
+      <c s="6" r="Q7" t="n"/>
+    </row>
+    <row s="1" r="8" spans="1:17">
+      <c s="2" r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c s="2" r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c s="11" r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c s="11" r="D8" t="n">
+        <v>445</v>
+      </c>
+      <c s="11" r="E8" t="n">
+        <v>339</v>
+      </c>
+      <c s="11" r="F8" t="n">
+        <v>341</v>
+      </c>
+      <c s="11" r="G8" t="n">
+        <v>297</v>
+      </c>
+      <c s="11" r="H8" t="n">
+        <v>260</v>
+      </c>
+      <c s="11" r="I8" t="n">
+        <v>277</v>
+      </c>
+      <c s="11" r="J8" t="n">
+        <v>247</v>
+      </c>
+      <c s="11" r="K8" t="n">
+        <v>249</v>
+      </c>
+      <c s="11" r="L8" t="n">
+        <v>258</v>
+      </c>
+      <c s="11" r="M8" t="n">
+        <v>258</v>
+      </c>
+      <c s="11" r="N8" t="n">
+        <v>333</v>
+      </c>
+      <c s="11" r="O8" t="n">
+        <v>338</v>
+      </c>
+      <c s="11" r="P8" t="n">
+        <v>370</v>
+      </c>
+      <c s="6" r="Q8" t="n"/>
+    </row>
+    <row s="1" r="9" spans="1:17">
+      <c s="2" r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c s="2" r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c s="10" r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c s="11" r="D9" t="n">
+        <v>441</v>
+      </c>
+      <c s="11" r="E9" t="n">
+        <v>385</v>
+      </c>
+      <c s="11" r="F9" t="n">
+        <v>306</v>
+      </c>
+      <c s="11" r="G9" t="n">
+        <v>258</v>
+      </c>
+      <c s="11" r="H9" t="n">
+        <v>204</v>
+      </c>
+      <c s="11" r="I9" t="n">
+        <v>166</v>
+      </c>
+      <c s="11" r="J9" t="n">
+        <v>172</v>
+      </c>
+      <c s="11" r="K9" t="n">
+        <v>116</v>
+      </c>
+      <c s="11" r="L9" t="n">
+        <v>129</v>
+      </c>
+      <c s="11" r="M9" t="n">
+        <v>138</v>
+      </c>
+      <c s="11" r="N9" t="n">
+        <v>118</v>
+      </c>
+      <c s="11" r="O9" t="n">
+        <v>146</v>
+      </c>
+      <c s="11" r="P9" t="n">
+        <v>180</v>
+      </c>
+      <c s="6" r="Q9" t="n"/>
+    </row>
+    <row s="1" r="10" spans="1:17">
+      <c s="2" r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c s="2" r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c s="11" r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c s="11" r="D10" t="n">
+        <v>441</v>
+      </c>
+      <c s="11" r="E10" t="n">
+        <v>335</v>
+      </c>
+      <c s="11" r="F10" t="n">
+        <v>226</v>
+      </c>
+      <c s="11" r="G10" t="n">
+        <v>238</v>
+      </c>
+      <c s="11" r="H10" t="n">
+        <v>172</v>
+      </c>
+      <c s="11" r="I10" t="n">
+        <v>182</v>
+      </c>
+      <c s="11" r="J10" t="n">
+        <v>139</v>
+      </c>
+      <c s="11" r="K10" t="n">
+        <v>122</v>
+      </c>
+      <c s="11" r="L10" t="n">
+        <v>141</v>
+      </c>
+      <c s="11" r="M10" t="n">
+        <v>161</v>
+      </c>
+      <c s="11" r="N10" t="n">
+        <v>142</v>
+      </c>
+      <c s="11" r="O10" t="n">
+        <v>173</v>
+      </c>
+      <c s="11" r="P10" t="n">
+        <v>213</v>
+      </c>
+      <c s="2" r="Q10" t="n"/>
+    </row>
+    <row s="1" r="11" spans="1:17">
+      <c s="2" r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c s="2" r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c s="11" r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c s="11" r="D11" t="n">
+        <v>463</v>
+      </c>
+      <c s="11" r="E11" t="n">
+        <v>371</v>
+      </c>
+      <c s="11" r="F11" t="n">
+        <v>319</v>
+      </c>
+      <c s="11" r="G11" t="n">
+        <v>325</v>
+      </c>
+      <c s="11" r="H11" t="n">
+        <v>259</v>
+      </c>
+      <c s="11" r="I11" t="n">
+        <v>226</v>
+      </c>
+      <c s="11" r="J11" t="n">
+        <v>233</v>
+      </c>
+      <c s="11" r="K11" t="n">
+        <v>198</v>
+      </c>
+      <c s="11" r="L11" t="n">
         <v>199</v>
       </c>
-      <c s="9" r="J6" t="n">
-        <v>169</v>
-      </c>
-      <c s="9" r="K6" t="n">
-        <v>151</v>
-      </c>
-      <c s="9" r="L6" t="n">
-        <v>137</v>
-      </c>
-      <c s="9" r="M6" t="n">
-        <v>164</v>
-      </c>
-      <c s="9" r="N6" t="n">
-        <v>137</v>
-      </c>
-      <c s="9" r="O6" t="n">
-        <v>142</v>
-      </c>
-      <c s="9" r="P6" t="n">
-        <v>161</v>
-      </c>
-      <c s="7" r="Q6" t="n"/>
-    </row>
-    <row s="1" r="7" spans="1:17">
-      <c s="8" r="C7" t="n"/>
-      <c s="8" r="D7" t="n"/>
-      <c s="8" r="E7" t="n"/>
-      <c s="8" r="F7" t="n"/>
-      <c s="8" r="G7" t="n"/>
-      <c s="8" r="H7" t="n"/>
-      <c s="8" r="I7" t="n"/>
-      <c s="8" r="J7" t="n"/>
-      <c s="8" r="K7" t="n"/>
-      <c s="8" r="L7" t="n"/>
-      <c s="8" r="M7" t="n"/>
-      <c s="8" r="N7" t="n"/>
-      <c s="8" r="O7" t="n"/>
-      <c s="8" r="P7" t="n"/>
-      <c s="7" r="Q7" t="n"/>
-    </row>
-    <row s="1" r="8" spans="1:17">
-      <c s="8" r="C8" t="n"/>
-      <c s="8" r="D8" t="n"/>
-      <c s="8" r="E8" t="n"/>
-      <c s="8" r="F8" t="n"/>
-      <c s="8" r="G8" t="n"/>
-      <c s="8" r="H8" t="n"/>
-      <c s="8" r="I8" t="n"/>
-      <c s="8" r="J8" t="n"/>
-      <c s="8" r="K8" t="n"/>
-      <c s="8" r="L8" t="n"/>
-      <c s="8" r="M8" t="n"/>
-      <c s="8" r="N8" t="n"/>
-      <c s="8" r="O8" t="n"/>
-      <c s="8" r="P8" t="n"/>
-      <c s="7" r="Q8" t="n"/>
-    </row>
-    <row s="1" r="9" spans="1:17">
-      <c s="8" r="C9" t="n"/>
-      <c s="8" r="D9" t="n"/>
-      <c s="8" r="E9" t="n"/>
-      <c s="8" r="F9" t="n"/>
-      <c s="8" r="G9" t="n"/>
-      <c s="8" r="H9" t="n"/>
-      <c s="8" r="I9" t="n"/>
-      <c s="8" r="J9" t="n"/>
-      <c s="8" r="K9" t="n"/>
-      <c s="8" r="L9" t="n"/>
-      <c s="8" r="M9" t="n"/>
-      <c s="8" r="N9" t="n"/>
-      <c s="8" r="O9" t="n"/>
-      <c s="8" r="P9" t="n"/>
-      <c s="7" r="Q9" t="n"/>
-    </row>
-    <row s="1" r="10" spans="1:17">
-      <c s="8" r="C10" t="n"/>
-      <c s="8" r="D10" t="n"/>
-      <c s="8" r="E10" t="n"/>
-      <c s="8" r="F10" t="n"/>
-      <c s="8" r="G10" t="n"/>
-      <c s="8" r="H10" t="n"/>
-      <c s="8" r="I10" t="n"/>
-      <c s="8" r="J10" t="n"/>
-      <c s="8" r="K10" t="n"/>
-      <c s="8" r="L10" t="n"/>
-      <c s="8" r="M10" t="n"/>
-      <c s="8" r="N10" t="n"/>
-      <c s="8" r="O10" t="n"/>
-      <c s="8" r="P10" t="n"/>
-      <c s="2" r="Q10" t="n"/>
-    </row>
-    <row s="1" r="11" spans="1:17">
-      <c s="8" r="C11" t="n"/>
-      <c s="8" r="D11" t="n"/>
-      <c s="8" r="E11" t="n"/>
-      <c s="8" r="F11" t="n"/>
-      <c s="8" r="G11" t="n"/>
-      <c s="8" r="H11" t="n"/>
-      <c s="8" r="I11" t="n"/>
-      <c s="8" r="J11" t="n"/>
-      <c s="8" r="K11" t="n"/>
-      <c s="8" r="L11" t="n"/>
-      <c s="8" r="M11" t="n"/>
-      <c s="8" r="N11" t="n"/>
-      <c s="8" r="O11" t="n"/>
-      <c s="8" r="P11" t="n"/>
+      <c s="11" r="M11" t="n">
+        <v>230</v>
+      </c>
+      <c s="11" r="N11" t="n">
+        <v>234</v>
+      </c>
+      <c s="11" r="O11" t="n">
+        <v>259</v>
+      </c>
+      <c s="11" r="P11" t="n">
+        <v>303</v>
+      </c>
       <c s="2" r="Q11" t="n"/>
     </row>
     <row s="1" r="12" spans="1:17">
       <c s="5" r="A12" t="n"/>
-      <c s="9" r="B12" t="n"/>
-      <c s="9" r="C12" t="n"/>
-      <c s="9" r="D12" t="n"/>
-      <c s="9" r="E12" t="n"/>
-      <c s="9" r="F12" t="n"/>
-      <c s="9" r="G12" t="n"/>
-      <c s="9" r="H12" t="n"/>
-      <c s="9" r="I12" t="n"/>
-      <c s="9" r="J12" t="n"/>
-      <c s="9" r="K12" t="n"/>
+      <c s="11" r="B12" t="n"/>
+      <c s="11" r="C12" t="n"/>
+      <c s="11" r="D12" t="n"/>
+      <c s="11" r="E12" t="n"/>
+      <c s="11" r="F12" t="n"/>
+      <c s="11" r="G12" t="n"/>
+      <c s="11" r="H12" t="n"/>
+      <c s="11" r="I12" t="n"/>
+      <c s="11" r="J12" t="n"/>
+      <c s="11" r="K12" t="n"/>
       <c s="3" r="L12" t="n"/>
       <c s="3" r="M12" t="n"/>
       <c s="3" r="N12" t="n"/>
@@ -948,16 +1141,16 @@
     </row>
     <row s="1" r="13" spans="1:17">
       <c s="5" r="A13" t="n"/>
-      <c s="9" r="B13" t="n"/>
-      <c s="9" r="C13" t="n"/>
-      <c s="9" r="D13" t="n"/>
-      <c s="9" r="E13" t="n"/>
-      <c s="9" r="F13" t="n"/>
-      <c s="9" r="G13" t="n"/>
-      <c s="9" r="H13" t="n"/>
-      <c s="9" r="I13" t="n"/>
-      <c s="9" r="J13" t="n"/>
-      <c s="9" r="K13" t="n"/>
+      <c s="11" r="B13" t="n"/>
+      <c s="11" r="C13" t="n"/>
+      <c s="11" r="D13" t="n"/>
+      <c s="11" r="E13" t="n"/>
+      <c s="11" r="F13" t="n"/>
+      <c s="11" r="G13" t="n"/>
+      <c s="11" r="H13" t="n"/>
+      <c s="11" r="I13" t="n"/>
+      <c s="11" r="J13" t="n"/>
+      <c s="11" r="K13" t="n"/>
       <c s="3" r="L13" t="n"/>
       <c s="3" r="M13" t="n"/>
       <c s="3" r="N13" t="n"/>
@@ -967,16 +1160,16 @@
     </row>
     <row s="1" r="14" spans="1:17">
       <c s="5" r="A14" t="n"/>
-      <c s="9" r="B14" t="n"/>
-      <c s="9" r="C14" t="n"/>
-      <c s="9" r="D14" t="n"/>
-      <c s="9" r="E14" t="n"/>
-      <c s="9" r="F14" t="n"/>
-      <c s="9" r="G14" t="n"/>
-      <c s="9" r="H14" t="n"/>
-      <c s="9" r="I14" t="n"/>
-      <c s="9" r="J14" t="n"/>
-      <c s="9" r="K14" t="n"/>
+      <c s="11" r="B14" t="n"/>
+      <c s="11" r="C14" t="n"/>
+      <c s="11" r="D14" t="n"/>
+      <c s="11" r="E14" t="n"/>
+      <c s="11" r="F14" t="n"/>
+      <c s="11" r="G14" t="n"/>
+      <c s="11" r="H14" t="n"/>
+      <c s="11" r="I14" t="n"/>
+      <c s="11" r="J14" t="n"/>
+      <c s="11" r="K14" t="n"/>
       <c s="2" r="L14" t="n"/>
       <c s="2" r="M14" t="n"/>
       <c s="2" r="N14" t="n"/>
@@ -986,29 +1179,29 @@
     </row>
     <row s="1" r="15" spans="1:17">
       <c s="5" r="A15" t="n"/>
-      <c s="9" r="B15" t="n"/>
-      <c s="9" r="C15" t="n"/>
-      <c s="9" r="D15" t="n"/>
-      <c s="9" r="E15" t="n"/>
-      <c s="9" r="F15" t="n"/>
-      <c s="9" r="G15" t="n"/>
-      <c s="9" r="H15" t="n"/>
-      <c s="9" r="I15" t="n"/>
-      <c s="9" r="J15" t="n"/>
-      <c s="9" r="K15" t="n"/>
+      <c s="11" r="B15" t="n"/>
+      <c s="11" r="C15" t="n"/>
+      <c s="11" r="D15" t="n"/>
+      <c s="11" r="E15" t="n"/>
+      <c s="11" r="F15" t="n"/>
+      <c s="11" r="G15" t="n"/>
+      <c s="11" r="H15" t="n"/>
+      <c s="11" r="I15" t="n"/>
+      <c s="11" r="J15" t="n"/>
+      <c s="11" r="K15" t="n"/>
     </row>
     <row s="1" r="16" spans="1:17">
       <c s="5" r="A16" t="n"/>
-      <c s="9" r="B16" t="n"/>
-      <c s="9" r="C16" t="n"/>
-      <c s="9" r="D16" t="n"/>
-      <c s="9" r="E16" t="n"/>
-      <c s="9" r="F16" t="n"/>
-      <c s="9" r="G16" t="n"/>
-      <c s="9" r="H16" t="n"/>
-      <c s="9" r="I16" t="n"/>
-      <c s="9" r="J16" t="n"/>
-      <c s="9" r="K16" t="n"/>
+      <c s="11" r="B16" t="n"/>
+      <c s="11" r="C16" t="n"/>
+      <c s="11" r="D16" t="n"/>
+      <c s="11" r="E16" t="n"/>
+      <c s="11" r="F16" t="n"/>
+      <c s="11" r="G16" t="n"/>
+      <c s="11" r="H16" t="n"/>
+      <c s="11" r="I16" t="n"/>
+      <c s="11" r="J16" t="n"/>
+      <c s="11" r="K16" t="n"/>
     </row>
     <row s="1" r="24" spans="1:17">
       <c s="2" r="A24" t="s">
@@ -1029,11 +1222,21 @@
       <c s="2" r="F24" t="s">
         <v>1</v>
       </c>
-      <c s="2" r="G24" t="n"/>
-      <c s="2" r="H24" t="n"/>
-      <c s="2" r="I24" t="n"/>
-      <c s="2" r="J24" t="n"/>
-      <c s="2" r="K24" t="n"/>
+      <c s="2" r="G24" t="s">
+        <v>1</v>
+      </c>
+      <c s="2" r="H24" t="s">
+        <v>1</v>
+      </c>
+      <c s="2" r="I24" t="s">
+        <v>1</v>
+      </c>
+      <c s="2" r="J24" t="s">
+        <v>1</v>
+      </c>
+      <c s="2" r="K24" t="s">
+        <v>1</v>
+      </c>
       <c s="2" r="L24" t="n"/>
       <c s="2" r="M24" t="n"/>
     </row>
@@ -1056,11 +1259,21 @@
       <c s="2" r="F25" t="s">
         <v>2</v>
       </c>
-      <c s="2" r="G25" t="n"/>
-      <c s="2" r="H25" t="n"/>
-      <c s="2" r="I25" t="n"/>
-      <c s="2" r="J25" t="n"/>
-      <c s="2" r="K25" t="n"/>
+      <c s="2" r="G25" t="s">
+        <v>8</v>
+      </c>
+      <c s="2" r="H25" t="s">
+        <v>8</v>
+      </c>
+      <c s="2" r="I25" t="s">
+        <v>8</v>
+      </c>
+      <c s="2" r="J25" t="s">
+        <v>8</v>
+      </c>
+      <c s="2" r="K25" t="s">
+        <v>8</v>
+      </c>
       <c s="2" r="L25" t="n"/>
       <c s="2" r="M25" t="n"/>
     </row>
@@ -1068,26 +1281,36 @@
       <c s="2" r="A26" t="s">
         <v>0</v>
       </c>
-      <c s="9" r="B26" t="s">
+      <c s="11" r="B26" t="s">
         <v>3</v>
       </c>
-      <c s="9" r="C26" t="s">
+      <c s="11" r="C26" t="s">
         <v>4</v>
       </c>
-      <c s="9" r="D26" t="s">
+      <c s="11" r="D26" t="s">
         <v>5</v>
       </c>
-      <c s="9" r="E26" t="s">
+      <c s="11" r="E26" t="s">
         <v>6</v>
       </c>
-      <c s="9" r="F26" t="s">
+      <c s="11" r="F26" t="s">
         <v>7</v>
       </c>
-      <c s="8" r="G26" t="n"/>
-      <c s="8" r="H26" t="n"/>
-      <c s="8" r="I26" t="n"/>
-      <c s="8" r="J26" t="n"/>
-      <c s="8" r="K26" t="n"/>
+      <c s="11" r="G26" t="s">
+        <v>9</v>
+      </c>
+      <c s="11" r="H26" t="s">
+        <v>10</v>
+      </c>
+      <c s="10" r="I26" t="s">
+        <v>11</v>
+      </c>
+      <c s="11" r="J26" t="s">
+        <v>12</v>
+      </c>
+      <c s="11" r="K26" t="s">
+        <v>13</v>
+      </c>
       <c s="3" r="L26" t="n"/>
       <c s="3" r="M26" t="n"/>
     </row>
@@ -1095,26 +1318,36 @@
       <c s="5" r="A27" t="n">
         <v>0</v>
       </c>
-      <c s="10" r="B27" t="n">
-        <v>460</v>
-      </c>
-      <c s="9" r="C27" t="n">
-        <v>458</v>
-      </c>
-      <c s="9" r="D27" t="n">
-        <v>456</v>
-      </c>
-      <c s="9" r="E27" t="n">
-        <v>362</v>
-      </c>
-      <c s="9" r="F27" t="n">
-        <v>409</v>
-      </c>
-      <c s="8" r="G27" t="n"/>
-      <c s="8" r="H27" t="n"/>
-      <c s="8" r="I27" t="n"/>
-      <c s="8" r="J27" t="n"/>
-      <c s="8" r="K27" t="n"/>
+      <c s="8" r="B27" t="n">
+        <v>446</v>
+      </c>
+      <c s="11" r="C27" t="n">
+        <v>413</v>
+      </c>
+      <c s="11" r="D27" t="n">
+        <v>461</v>
+      </c>
+      <c s="11" r="E27" t="n">
+        <v>428</v>
+      </c>
+      <c s="11" r="F27" t="n">
+        <v>385</v>
+      </c>
+      <c s="8" r="G27" t="n">
+        <v>412</v>
+      </c>
+      <c s="11" r="H27" t="n">
+        <v>445</v>
+      </c>
+      <c s="11" r="I27" t="n">
+        <v>441</v>
+      </c>
+      <c s="11" r="J27" t="n">
+        <v>441</v>
+      </c>
+      <c s="11" r="K27" t="n">
+        <v>463</v>
+      </c>
       <c s="3" r="L27" t="n"/>
       <c s="3" r="M27" t="n"/>
     </row>
@@ -1122,26 +1355,36 @@
       <c s="5" r="A28" t="n">
         <v>10</v>
       </c>
-      <c s="10" r="B28" t="n">
-        <v>426</v>
-      </c>
-      <c s="9" r="C28" t="n">
-        <v>440</v>
-      </c>
-      <c s="9" r="D28" t="n">
-        <v>384</v>
-      </c>
-      <c s="9" r="E28" t="n">
+      <c s="8" r="B28" t="n">
+        <v>381</v>
+      </c>
+      <c s="11" r="C28" t="n">
+        <v>323</v>
+      </c>
+      <c s="11" r="D28" t="n">
+        <v>385</v>
+      </c>
+      <c s="11" r="E28" t="n">
+        <v>317</v>
+      </c>
+      <c s="11" r="F28" t="n">
+        <v>326</v>
+      </c>
+      <c s="8" r="G28" t="n">
+        <v>307</v>
+      </c>
+      <c s="11" r="H28" t="n">
+        <v>339</v>
+      </c>
+      <c s="11" r="I28" t="n">
+        <v>385</v>
+      </c>
+      <c s="11" r="J28" t="n">
+        <v>335</v>
+      </c>
+      <c s="11" r="K28" t="n">
         <v>371</v>
       </c>
-      <c s="9" r="F28" t="n">
-        <v>354</v>
-      </c>
-      <c s="8" r="G28" t="n"/>
-      <c s="8" r="H28" t="n"/>
-      <c s="8" r="I28" t="n"/>
-      <c s="8" r="J28" t="n"/>
-      <c s="8" r="K28" t="n"/>
       <c s="3" r="L28" t="n"/>
       <c s="3" r="M28" t="n"/>
     </row>
@@ -1149,26 +1392,36 @@
       <c s="5" r="A29" t="n">
         <v>20</v>
       </c>
-      <c s="10" r="B29" t="n">
-        <v>361</v>
-      </c>
-      <c s="9" r="C29" t="n">
-        <v>337</v>
-      </c>
-      <c s="9" r="D29" t="n">
-        <v>323</v>
-      </c>
-      <c s="9" r="E29" t="n">
-        <v>287</v>
-      </c>
-      <c s="9" r="F29" t="n">
-        <v>287</v>
-      </c>
-      <c s="8" r="G29" t="n"/>
-      <c s="8" r="H29" t="n"/>
-      <c s="8" r="I29" t="n"/>
-      <c s="8" r="J29" t="n"/>
-      <c s="8" r="K29" t="n"/>
+      <c s="8" r="B29" t="n">
+        <v>355</v>
+      </c>
+      <c s="11" r="C29" t="n">
+        <v>347</v>
+      </c>
+      <c s="11" r="D29" t="n">
+        <v>328</v>
+      </c>
+      <c s="11" r="E29" t="n">
+        <v>269</v>
+      </c>
+      <c s="11" r="F29" t="n">
+        <v>251</v>
+      </c>
+      <c s="8" r="G29" t="n">
+        <v>302</v>
+      </c>
+      <c s="11" r="H29" t="n">
+        <v>341</v>
+      </c>
+      <c s="11" r="I29" t="n">
+        <v>306</v>
+      </c>
+      <c s="11" r="J29" t="n">
+        <v>226</v>
+      </c>
+      <c s="11" r="K29" t="n">
+        <v>319</v>
+      </c>
       <c s="3" r="L29" t="n"/>
       <c s="3" r="M29" t="n"/>
     </row>
@@ -1176,26 +1429,36 @@
       <c s="5" r="A30" t="n">
         <v>30</v>
       </c>
-      <c s="10" r="B30" t="n">
-        <v>309</v>
-      </c>
-      <c s="9" r="C30" t="n">
-        <v>276</v>
-      </c>
-      <c s="9" r="D30" t="n">
-        <v>290</v>
-      </c>
-      <c s="9" r="E30" t="n">
-        <v>253</v>
-      </c>
-      <c s="9" r="F30" t="n">
-        <v>266</v>
-      </c>
-      <c s="8" r="G30" t="n"/>
-      <c s="8" r="H30" t="n"/>
-      <c s="8" r="I30" t="n"/>
-      <c s="8" r="J30" t="n"/>
-      <c s="8" r="K30" t="n"/>
+      <c s="8" r="B30" t="n">
+        <v>283</v>
+      </c>
+      <c s="11" r="C30" t="n">
+        <v>292</v>
+      </c>
+      <c s="11" r="D30" t="n">
+        <v>302</v>
+      </c>
+      <c s="11" r="E30" t="n">
+        <v>246</v>
+      </c>
+      <c s="11" r="F30" t="n">
+        <v>240</v>
+      </c>
+      <c s="8" r="G30" t="n">
+        <v>278</v>
+      </c>
+      <c s="11" r="H30" t="n">
+        <v>297</v>
+      </c>
+      <c s="11" r="I30" t="n">
+        <v>258</v>
+      </c>
+      <c s="11" r="J30" t="n">
+        <v>238</v>
+      </c>
+      <c s="11" r="K30" t="n">
+        <v>325</v>
+      </c>
       <c s="3" r="L30" t="n"/>
       <c s="3" r="M30" t="n"/>
     </row>
@@ -1203,26 +1466,36 @@
       <c s="5" r="A31" t="n">
         <v>40</v>
       </c>
-      <c s="10" r="B31" t="n">
-        <v>288</v>
-      </c>
-      <c s="9" r="C31" t="n">
-        <v>263</v>
-      </c>
-      <c s="9" r="D31" t="n">
+      <c s="8" r="B31" t="n">
+        <v>250</v>
+      </c>
+      <c s="11" r="C31" t="n">
+        <v>297</v>
+      </c>
+      <c s="11" r="D31" t="n">
+        <v>277</v>
+      </c>
+      <c s="11" r="E31" t="n">
+        <v>212</v>
+      </c>
+      <c s="11" r="F31" t="n">
+        <v>229</v>
+      </c>
+      <c s="8" r="G31" t="n">
+        <v>248</v>
+      </c>
+      <c s="11" r="H31" t="n">
         <v>260</v>
       </c>
-      <c s="9" r="E31" t="n">
-        <v>249</v>
-      </c>
-      <c s="9" r="F31" t="n">
-        <v>242</v>
-      </c>
-      <c s="8" r="G31" t="n"/>
-      <c s="8" r="H31" t="n"/>
-      <c s="8" r="I31" t="n"/>
-      <c s="8" r="J31" t="n"/>
-      <c s="8" r="K31" t="n"/>
+      <c s="11" r="I31" t="n">
+        <v>204</v>
+      </c>
+      <c s="11" r="J31" t="n">
+        <v>172</v>
+      </c>
+      <c s="11" r="K31" t="n">
+        <v>259</v>
+      </c>
       <c s="3" r="L31" t="n"/>
       <c s="3" r="M31" t="n"/>
     </row>
@@ -1230,26 +1503,36 @@
       <c s="5" r="A32" t="n">
         <v>50</v>
       </c>
-      <c s="10" r="B32" t="n">
-        <v>273</v>
-      </c>
-      <c s="9" r="C32" t="n">
-        <v>246</v>
-      </c>
-      <c s="9" r="D32" t="n">
-        <v>220</v>
-      </c>
-      <c s="9" r="E32" t="n">
+      <c s="8" r="B32" t="n">
+        <v>201</v>
+      </c>
+      <c s="11" r="C32" t="n">
+        <v>276</v>
+      </c>
+      <c s="11" r="D32" t="n">
+        <v>258</v>
+      </c>
+      <c s="11" r="E32" t="n">
         <v>187</v>
       </c>
-      <c s="9" r="F32" t="n">
-        <v>199</v>
-      </c>
-      <c s="8" r="G32" t="n"/>
-      <c s="8" r="H32" t="n"/>
-      <c s="8" r="I32" t="n"/>
-      <c s="8" r="J32" t="n"/>
-      <c s="8" r="K32" t="n"/>
+      <c s="11" r="F32" t="n">
+        <v>216</v>
+      </c>
+      <c s="8" r="G32" t="n">
+        <v>231</v>
+      </c>
+      <c s="11" r="H32" t="n">
+        <v>277</v>
+      </c>
+      <c s="11" r="I32" t="n">
+        <v>166</v>
+      </c>
+      <c s="11" r="J32" t="n">
+        <v>182</v>
+      </c>
+      <c s="11" r="K32" t="n">
+        <v>226</v>
+      </c>
       <c s="3" r="L32" t="n"/>
       <c s="3" r="M32" t="n"/>
     </row>
@@ -1257,26 +1540,36 @@
       <c s="5" r="A33" t="n">
         <v>60</v>
       </c>
-      <c s="10" r="B33" t="n">
-        <v>255</v>
-      </c>
-      <c s="9" r="C33" t="n">
-        <v>207</v>
-      </c>
-      <c s="9" r="D33" t="n">
-        <v>219</v>
-      </c>
-      <c s="9" r="E33" t="n">
-        <v>174</v>
-      </c>
-      <c s="9" r="F33" t="n">
-        <v>169</v>
-      </c>
-      <c s="8" r="G33" t="n"/>
-      <c s="8" r="H33" t="n"/>
-      <c s="8" r="I33" t="n"/>
-      <c s="8" r="J33" t="n"/>
-      <c s="8" r="K33" t="n"/>
+      <c s="8" r="B33" t="n">
+        <v>177</v>
+      </c>
+      <c s="11" r="C33" t="n">
+        <v>280</v>
+      </c>
+      <c s="11" r="D33" t="n">
+        <v>232</v>
+      </c>
+      <c s="11" r="E33" t="n">
+        <v>197</v>
+      </c>
+      <c s="11" r="F33" t="n">
+        <v>203</v>
+      </c>
+      <c s="8" r="G33" t="n">
+        <v>197</v>
+      </c>
+      <c s="11" r="H33" t="n">
+        <v>247</v>
+      </c>
+      <c s="11" r="I33" t="n">
+        <v>172</v>
+      </c>
+      <c s="11" r="J33" t="n">
+        <v>139</v>
+      </c>
+      <c s="11" r="K33" t="n">
+        <v>233</v>
+      </c>
       <c s="3" r="L33" t="n"/>
       <c s="3" r="M33" t="n"/>
     </row>
@@ -1284,26 +1577,36 @@
       <c s="5" r="A34" t="n">
         <v>80</v>
       </c>
-      <c s="10" r="B34" t="n">
-        <v>205</v>
-      </c>
-      <c s="9" r="C34" t="n">
-        <v>172</v>
-      </c>
-      <c s="9" r="D34" t="n">
-        <v>214</v>
-      </c>
-      <c s="9" r="E34" t="n">
-        <v>121</v>
-      </c>
-      <c s="9" r="F34" t="n">
-        <v>151</v>
-      </c>
-      <c s="8" r="G34" t="n"/>
-      <c s="8" r="H34" t="n"/>
-      <c s="8" r="I34" t="n"/>
-      <c s="8" r="J34" t="n"/>
-      <c s="8" r="K34" t="n"/>
+      <c s="8" r="B34" t="n">
+        <v>159</v>
+      </c>
+      <c s="11" r="C34" t="n">
+        <v>295</v>
+      </c>
+      <c s="11" r="D34" t="n">
+        <v>251</v>
+      </c>
+      <c s="11" r="E34" t="n">
+        <v>206</v>
+      </c>
+      <c s="11" r="F34" t="n">
+        <v>167</v>
+      </c>
+      <c s="8" r="G34" t="n">
+        <v>194</v>
+      </c>
+      <c s="11" r="H34" t="n">
+        <v>249</v>
+      </c>
+      <c s="11" r="I34" t="n">
+        <v>116</v>
+      </c>
+      <c s="11" r="J34" t="n">
+        <v>122</v>
+      </c>
+      <c s="11" r="K34" t="n">
+        <v>198</v>
+      </c>
       <c s="3" r="L34" t="n"/>
       <c s="3" r="M34" t="n"/>
     </row>
@@ -1311,26 +1614,36 @@
       <c s="5" r="A35" t="n">
         <v>100</v>
       </c>
-      <c s="10" r="B35" t="n">
-        <v>206</v>
-      </c>
-      <c s="9" r="C35" t="n">
-        <v>179</v>
-      </c>
-      <c s="9" r="D35" t="n">
-        <v>201</v>
-      </c>
-      <c s="9" r="E35" t="n">
-        <v>107</v>
-      </c>
-      <c s="9" r="F35" t="n">
-        <v>137</v>
-      </c>
-      <c s="8" r="G35" t="n"/>
-      <c s="8" r="H35" t="n"/>
-      <c s="8" r="I35" t="n"/>
-      <c s="8" r="J35" t="n"/>
-      <c s="8" r="K35" t="n"/>
+      <c s="8" r="B35" t="n">
+        <v>146</v>
+      </c>
+      <c s="11" r="C35" t="n">
+        <v>299</v>
+      </c>
+      <c s="11" r="D35" t="n">
+        <v>257</v>
+      </c>
+      <c s="11" r="E35" t="n">
+        <v>243</v>
+      </c>
+      <c s="11" r="F35" t="n">
+        <v>158</v>
+      </c>
+      <c s="8" r="G35" t="n">
+        <v>185</v>
+      </c>
+      <c s="11" r="H35" t="n">
+        <v>258</v>
+      </c>
+      <c s="11" r="I35" t="n">
+        <v>129</v>
+      </c>
+      <c s="11" r="J35" t="n">
+        <v>141</v>
+      </c>
+      <c s="11" r="K35" t="n">
+        <v>199</v>
+      </c>
       <c s="3" r="L35" t="n"/>
       <c s="3" r="M35" t="n"/>
     </row>
@@ -1338,26 +1651,36 @@
       <c s="5" r="A36" t="n">
         <v>120</v>
       </c>
-      <c s="10" r="B36" t="n">
-        <v>220</v>
-      </c>
-      <c s="9" r="C36" t="n">
+      <c s="8" r="B36" t="n">
         <v>173</v>
       </c>
-      <c s="9" r="D36" t="n">
-        <v>217</v>
-      </c>
-      <c s="9" r="E36" t="n">
-        <v>92</v>
-      </c>
-      <c s="9" r="F36" t="n">
-        <v>164</v>
-      </c>
-      <c s="8" r="G36" t="n"/>
-      <c s="8" r="H36" t="n"/>
-      <c s="8" r="I36" t="n"/>
-      <c s="8" r="J36" t="n"/>
-      <c s="8" r="K36" t="n"/>
+      <c s="11" r="C36" t="n">
+        <v>310</v>
+      </c>
+      <c s="11" r="D36" t="n">
+        <v>284</v>
+      </c>
+      <c s="11" r="E36" t="n">
+        <v>264</v>
+      </c>
+      <c s="11" r="F36" t="n">
+        <v>172</v>
+      </c>
+      <c s="8" r="G36" t="n">
+        <v>205</v>
+      </c>
+      <c s="11" r="H36" t="n">
+        <v>258</v>
+      </c>
+      <c s="11" r="I36" t="n">
+        <v>138</v>
+      </c>
+      <c s="11" r="J36" t="n">
+        <v>161</v>
+      </c>
+      <c s="11" r="K36" t="n">
+        <v>230</v>
+      </c>
       <c s="3" r="L36" t="n"/>
       <c s="3" r="M36" t="n"/>
     </row>
@@ -1365,26 +1688,36 @@
       <c s="5" r="A37" t="n">
         <v>150</v>
       </c>
-      <c s="10" r="B37" t="n">
-        <v>220</v>
-      </c>
-      <c s="9" r="C37" t="n">
-        <v>173</v>
-      </c>
-      <c s="9" r="D37" t="n">
-        <v>229</v>
-      </c>
-      <c s="9" r="E37" t="n">
-        <v>97</v>
-      </c>
-      <c s="9" r="F37" t="n">
-        <v>137</v>
-      </c>
-      <c s="8" r="G37" t="n"/>
-      <c s="8" r="H37" t="n"/>
-      <c s="8" r="I37" t="n"/>
-      <c s="8" r="J37" t="n"/>
-      <c s="8" r="K37" t="n"/>
+      <c s="8" r="B37" t="n">
+        <v>183</v>
+      </c>
+      <c s="11" r="C37" t="n">
+        <v>335</v>
+      </c>
+      <c s="11" r="D37" t="n">
+        <v>284</v>
+      </c>
+      <c s="11" r="E37" t="n">
+        <v>294</v>
+      </c>
+      <c s="11" r="F37" t="n">
+        <v>158</v>
+      </c>
+      <c s="8" r="G37" t="n">
+        <v>199</v>
+      </c>
+      <c s="11" r="H37" t="n">
+        <v>333</v>
+      </c>
+      <c s="11" r="I37" t="n">
+        <v>118</v>
+      </c>
+      <c s="11" r="J37" t="n">
+        <v>142</v>
+      </c>
+      <c s="11" r="K37" t="n">
+        <v>234</v>
+      </c>
       <c s="3" r="L37" t="n"/>
       <c s="3" r="M37" t="n"/>
     </row>
@@ -1392,26 +1725,36 @@
       <c s="5" r="A38" t="n">
         <v>180</v>
       </c>
-      <c s="10" r="B38" t="n">
-        <v>262</v>
-      </c>
-      <c s="9" r="C38" t="n">
-        <v>237</v>
-      </c>
-      <c s="9" r="D38" t="n">
-        <v>249</v>
-      </c>
-      <c s="9" r="E38" t="n">
-        <v>114</v>
-      </c>
-      <c s="9" r="F38" t="n">
-        <v>142</v>
-      </c>
-      <c s="8" r="G38" t="n"/>
-      <c s="8" r="H38" t="n"/>
-      <c s="8" r="I38" t="n"/>
-      <c s="8" r="J38" t="n"/>
-      <c s="8" r="K38" t="n"/>
+      <c s="8" r="B38" t="n">
+        <v>222</v>
+      </c>
+      <c s="11" r="C38" t="n">
+        <v>346</v>
+      </c>
+      <c s="11" r="D38" t="n">
+        <v>300</v>
+      </c>
+      <c s="11" r="E38" t="n">
+        <v>300</v>
+      </c>
+      <c s="11" r="F38" t="n">
+        <v>188</v>
+      </c>
+      <c s="8" r="G38" t="n">
+        <v>242</v>
+      </c>
+      <c s="11" r="H38" t="n">
+        <v>338</v>
+      </c>
+      <c s="11" r="I38" t="n">
+        <v>146</v>
+      </c>
+      <c s="11" r="J38" t="n">
+        <v>173</v>
+      </c>
+      <c s="11" r="K38" t="n">
+        <v>259</v>
+      </c>
       <c s="3" r="L38" t="n"/>
       <c s="3" r="M38" t="n"/>
     </row>
@@ -1419,26 +1762,36 @@
       <c s="5" r="A39" t="n">
         <v>240</v>
       </c>
-      <c s="10" r="B39" t="n">
-        <v>332</v>
-      </c>
-      <c s="9" r="C39" t="n">
-        <v>299</v>
-      </c>
-      <c s="9" r="D39" t="n">
-        <v>298</v>
-      </c>
-      <c s="9" r="E39" t="n">
-        <v>153</v>
-      </c>
-      <c s="9" r="F39" t="n">
-        <v>161</v>
-      </c>
-      <c s="8" r="G39" t="n"/>
-      <c s="8" r="H39" t="n"/>
-      <c s="8" r="I39" t="n"/>
-      <c s="8" r="J39" t="n"/>
-      <c s="8" r="K39" t="n"/>
+      <c s="8" r="B39" t="n">
+        <v>267</v>
+      </c>
+      <c s="11" r="C39" t="n">
+        <v>345</v>
+      </c>
+      <c s="11" r="D39" t="n">
+        <v>330</v>
+      </c>
+      <c s="11" r="E39" t="n">
+        <v>323</v>
+      </c>
+      <c s="11" r="F39" t="n">
+        <v>209</v>
+      </c>
+      <c s="8" r="G39" t="n">
+        <v>267</v>
+      </c>
+      <c s="11" r="H39" t="n">
+        <v>370</v>
+      </c>
+      <c s="11" r="I39" t="n">
+        <v>180</v>
+      </c>
+      <c s="11" r="J39" t="n">
+        <v>213</v>
+      </c>
+      <c s="11" r="K39" t="n">
+        <v>303</v>
+      </c>
       <c s="3" r="L39" t="n"/>
       <c s="3" r="M39" t="n"/>
     </row>
@@ -1456,7 +1809,7 @@
   </s:sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1468,112 +1821,112 @@
     <col customWidth="1" max="6" min="4" style="2" width="8.7109375"/>
     <col customWidth="1" max="6" min="4" style="2" width="8.7109375"/>
     <col customWidth="1" max="6" min="4" style="2" width="8.7109375"/>
-    <col customWidth="1" hidden="1" max="8" min="7" style="1"/>
-    <col customWidth="1" hidden="1" max="8" min="7" style="1"/>
+    <col customWidth="1" max="8" min="7" style="1" width="11.42578125"/>
+    <col customWidth="1" max="8" min="7" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row s="1" r="1" spans="1:8">
       <c r="A1" t="n">
-        <v>466.1379864510903</v>
+        <v>452.9934407774826</v>
       </c>
       <c r="B1" t="n">
-        <v>206.796615150414</v>
+        <v>149.8066087539769</v>
       </c>
       <c r="C1" t="n">
-        <v>106.0495305942663</v>
+        <v>100.2206862327231</v>
       </c>
       <c r="D1" t="n">
-        <v>18244.74899178869</v>
+        <v>14245.73612852325</v>
       </c>
       <c r="E1" t="n">
-        <v>29101.04715215483</v>
+        <v>40715.15191123746</v>
       </c>
       <c s="2" r="G1" t="n"/>
       <c s="2" r="H1" t="n"/>
     </row>
     <row customHeight="1" s="1" r="2" ht="12.75" spans="1:8">
       <c s="2" r="A2" t="n">
-        <v>471.0292441462989</v>
+        <v>398.1090534131164</v>
       </c>
       <c s="2" r="B2" t="n">
-        <v>166.4115309030061</v>
+        <v>279.3587185240566</v>
       </c>
       <c s="3" r="C2" t="n">
-        <v>104.7506242310374</v>
+        <v>59.99696920421736</v>
       </c>
       <c r="D2" t="n">
-        <v>21602.74188282221</v>
+        <v>7020.423749035974</v>
       </c>
       <c r="E2" t="n">
-        <v>34575.57404374774</v>
+        <v>11404.79701965736</v>
       </c>
     </row>
     <row customHeight="1" s="1" r="3" ht="12.75" spans="1:8">
       <c s="2" r="A3" t="n">
-        <v>454.4446736374747</v>
+        <v>458.6338168729204</v>
       </c>
       <c s="2" r="B3" t="n">
-        <v>203.8977594838374</v>
+        <v>244.3351994207968</v>
       </c>
       <c s="3" r="C3" t="n">
-        <v>85.72298072587927</v>
+        <v>68.61849334227236</v>
       </c>
       <c r="D3" t="n">
-        <v>19489.23076210611</v>
+        <v>12309.89887789822</v>
       </c>
       <c r="E3" t="n">
-        <v>29064.92375332053</v>
+        <v>27881.94502538071</v>
       </c>
     </row>
     <row customHeight="1" s="1" r="4" ht="12.75" spans="1:8">
       <c s="2" r="A4" t="n">
-        <v>378.4689803370843</v>
+        <v>418.0478139127868</v>
       </c>
       <c s="2" r="B4" t="n">
-        <v>87.82304509482407</v>
+        <v>193.1345598223535</v>
       </c>
       <c s="3" r="C4" t="n">
-        <v>129.0665909174476</v>
+        <v>57.24598467245104</v>
       </c>
       <c r="D4" t="n">
-        <v>17032.74198515047</v>
+        <v>13461.63184754028</v>
       </c>
       <c r="E4" t="n">
-        <v>36231.80068775477</v>
+        <v>22494.11339360283</v>
       </c>
     </row>
     <row customHeight="1" s="1" r="5" ht="12.75" spans="1:8">
       <c s="2" r="A5" t="n">
-        <v>411.5646667306147</v>
+        <v>373.6121712403008</v>
       </c>
       <c s="2" r="B5" t="n">
-        <v>142.2616910474143</v>
+        <v>165.6625688010369</v>
       </c>
       <c s="3" r="C5" t="n">
-        <v>130.9519781997637</v>
+        <v>107.6679436815153</v>
       </c>
       <c r="D5" t="n">
-        <v>19041.63062779517</v>
+        <v>10216.29032468238</v>
       </c>
       <c r="E5" t="n">
-        <v>36755.46551239218</v>
+        <v>31974.23451509929</v>
       </c>
     </row>
     <row customHeight="1" s="1" r="6" ht="12.75" spans="1:8">
       <c r="A6" t="n">
-        <v>436.3291102605125</v>
+        <v>420.2792592433211</v>
       </c>
       <c r="B6" t="n">
-        <v>164.3913281382034</v>
+        <v>214.1723956210143</v>
       </c>
       <c s="4" r="C6" t="n">
-        <v>110.5593659152529</v>
+        <v>75.24926297208786</v>
       </c>
       <c r="D6" t="n">
-        <v>19082.21884993252</v>
+        <v>11450.79618553601</v>
       </c>
       <c r="E6" t="n">
-        <v>33145.762229874</v>
+        <v>26894.04837299553</v>
       </c>
     </row>
   </sheetData>
@@ -1607,25 +1960,110 @@
   </cols>
   <sheetData>
     <row s="1" r="1" spans="1:8">
-      <c s="2" r="D1" t="n"/>
-      <c s="2" r="E1" t="n"/>
+      <c r="A1" t="n">
+        <v>391.757168075851</v>
+      </c>
+      <c r="B1" t="n">
+        <v>188.8628676512928</v>
+      </c>
+      <c r="C1" t="n">
+        <v>94.76722448443417</v>
+      </c>
+      <c s="2" r="D1" t="n">
+        <v>13355.56124257376</v>
+      </c>
+      <c s="2" r="E1" t="n">
+        <v>24412.2677281464</v>
+      </c>
       <c s="2" r="F1" t="n"/>
       <c s="2" r="G1" t="n"/>
       <c s="2" r="H1" t="n"/>
     </row>
     <row customHeight="1" s="1" r="2" ht="12.75" spans="1:8">
-      <c s="3" r="C2" t="n"/>
+      <c r="A2" t="n">
+        <v>427.4065334027351</v>
+      </c>
+      <c r="B2" t="n">
+        <v>244.3328610308921</v>
+      </c>
+      <c s="3" r="C2" t="n">
+        <v>72.03895546185807</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13090.20701662859</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15208.20754018581</v>
+      </c>
     </row>
     <row customHeight="1" s="1" r="3" ht="12.75" spans="1:8">
-      <c s="3" r="C3" t="n"/>
+      <c r="A3" t="n">
+        <v>451.5346196556168</v>
+      </c>
+      <c r="B3" t="n">
+        <v>121.91479447992</v>
+      </c>
+      <c s="3" r="C3" t="n">
+        <v>106.2371508999267</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21453.51770554095</v>
+      </c>
+      <c r="E3" t="n">
+        <v>45627.83627647616</v>
+      </c>
     </row>
     <row customHeight="1" s="1" r="4" ht="12.75" spans="1:8">
-      <c s="3" r="C4" t="n"/>
+      <c r="A4" t="n">
+        <v>427.5206237561992</v>
+      </c>
+      <c r="B4" t="n">
+        <v>133.046151678745</v>
+      </c>
+      <c s="3" r="C4" t="n">
+        <v>78.09501120721424</v>
+      </c>
+      <c r="D4" t="n">
+        <v>21104.88215644336</v>
+      </c>
+      <c r="E4" t="n">
+        <v>38853.69317291923</v>
+      </c>
     </row>
     <row customHeight="1" s="1" r="5" ht="12.75" spans="1:8">
-      <c s="3" r="C5" t="n"/>
-    </row>
-    <row customHeight="1" s="1" r="6" ht="12.75" spans="1:8"/>
+      <c r="A5" t="n">
+        <v>453.0667509368421</v>
+      </c>
+      <c r="B5" t="n">
+        <v>205.3273354217244</v>
+      </c>
+      <c s="3" r="C5" t="n">
+        <v>88.77046864003657</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16849.61061856804</v>
+      </c>
+      <c r="E5" t="n">
+        <v>29803.55345301791</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="6" ht="12.75" spans="1:8">
+      <c r="A6" t="n">
+        <v>430.257139165449</v>
+      </c>
+      <c r="B6" t="n">
+        <v>180.9295052674287</v>
+      </c>
+      <c r="C6" t="n">
+        <v>86.65381598217853</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17170.75574795095</v>
+      </c>
+      <c r="E6" t="n">
+        <v>30781.11163414918</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
@@ -1654,10 +2092,10 @@
     <col customWidth="1" max="8" min="1" style="1" width="11.42578125"/>
     <col customWidth="1" max="8" min="1" style="1" width="11.42578125"/>
     <col customWidth="1" max="8" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" hidden="1" max="12" min="9" style="1"/>
-    <col customWidth="1" hidden="1" max="12" min="9" style="1"/>
-    <col customWidth="1" hidden="1" max="12" min="9" style="1"/>
-    <col customWidth="1" hidden="1" max="12" min="9" style="1"/>
+    <col hidden="1" max="12" min="9" style="1"/>
+    <col hidden="1" max="12" min="9" style="1"/>
+    <col hidden="1" max="12" min="9" style="1"/>
+    <col hidden="1" max="12" min="9" style="1"/>
   </cols>
   <sheetData>
     <row customHeight="1" s="1" r="1" ht="15" spans="1:12">
